--- a/biology/Médecine/Théophile_Coupier/Théophile_Coupier.xlsx
+++ b/biology/Médecine/Théophile_Coupier/Théophile_Coupier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Coupier</t>
+          <t>Théophile_Coupier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucien-Marie-Théophile Coupier , né le 10 août 1820 à Forcalquier (Basses-Alpes) et mort le 8 août 1872[2] à Paris 7e à la suite d'une opération chirurgicale, est un médecin, haut fonctionnaire et poète français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucien-Marie-Théophile Coupier , né le 10 août 1820 à Forcalquier (Basses-Alpes) et mort le 8 août 1872 à Paris 7e à la suite d'une opération chirurgicale, est un médecin, haut fonctionnaire et poète français.
 Il étudie la Médecine à Montpellier puis à Paris et y passe sa  thèse sur les maladies du cœur en  février 1848.   S’intéressant à Paris à la poésie, aux arts, à la philosophie et la politique, il se trouve propulsé à 27 ans, Sous Commissaire de la République à Sisteron, début d'une carrière préfectorale qui s'achèvera à la chute du Second Empire
 Le Docteur Coupier, Sous Préfet du Vigan (Gard), y épouse le 15 avril 1855  Amélie de Sébastiane (ou Sébastiani) (née en 1834 à Montpellier et décédée à Toulon en 1865).
 Dans sa propriété de Bez et Esparon, il expérimente et propose un traitement contre la Pèbrine, maladie du ver à soie qui décime les élevages séricicoles.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Coupier</t>
+          <t>Théophile_Coupier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous Commissaire de la République à Sisteron (22 mars 1848), confirmé Sous-préfet de l’arrondissement de Sisteron à Sisteron (Basses-Alpes),  le 23 juillet 1848[3].
-Sous-préfet de l’arrondissement de Boussac à Boussac (Creuse), nommé le 17 janvier 1850[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous Commissaire de la République à Sisteron (22 mars 1848), confirmé Sous-préfet de l’arrondissement de Sisteron à Sisteron (Basses-Alpes),  le 23 juillet 1848.
+Sous-préfet de l’arrondissement de Boussac à Boussac (Creuse), nommé le 17 janvier 1850.
 Sous-préfet de l’arrondissement d'Aubusson à Aubusson (Creuse), nommé le 12 septembre 1851.
 Sous-préfet de l’arrondissement du Vigan au Vigan (Gard), nommé le 14 mars 1854.
 Sous-préfet de l’arrondissement de Carpentras à Carpentras (Vaucluse), nommé le 24 mars 1862.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Coupier</t>
+          <t>Théophile_Coupier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,6 +568,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Coupier</t>
+          <t>Théophile_Coupier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (le 14 août 1862)[réf. souhaitée]
  Officier de la Légion d'honneur (le 10 janvier 1866)
-Décoré en 1866 pour son « courage contre l'épidémie de choléra »[4].
+Décoré en 1866 pour son « courage contre l'épidémie de choléra ».
 </t>
         </is>
       </c>
